--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rc2855449bc79473e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R02095566ba16478f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R02095566ba16478f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R50e14f61798a439d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R50e14f61798a439d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R76264e7894e94ee5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R76264e7894e94ee5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rdc5fa1af530e45bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rdc5fa1af530e45bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R76cb4bf03dae41ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R76cb4bf03dae41ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0598b835cc87466c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0598b835cc87466c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rec42d65408fe4011"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rec42d65408fe4011"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R3053e1e5f3ee4195"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R3053e1e5f3ee4195"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0942c8bcf45f43cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0942c8bcf45f43cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf27fce409ba94fe1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf27fce409ba94fe1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R6658078666164613"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,7 +30,7 @@
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R6658078666164613"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2813ec51b4eb4aea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,7 +30,7 @@
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/012_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2813ec51b4eb4aea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R5e955de04d644e1e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
